--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>822715.3161270622</v>
+        <v>745761.0314121109</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>343181.3944037003</v>
+        <v>309866.6454692112</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12118625.54424172</v>
+        <v>12116072.32741042</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7518125.295200823</v>
+        <v>7520601.324368571</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="W5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2.20035632559159</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1135,20 +1135,20 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F8" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>83.03189205754168</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>217.41899320736</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.0339917726843</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G11" t="n">
-        <v>263.2420339516669</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H11" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>24.95442131525722</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>131.3559228367315</v>
+        <v>208.731143873963</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>263.2420339516669</v>
+        <v>45.58123541261014</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>227.7664834517761</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>48.43658665918465</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S15" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>112.9700238478037</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>75.98738908928321</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.8001683373802</v>
+        <v>413.8442992113257</v>
       </c>
       <c r="H17" t="n">
-        <v>324.0866155240853</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>152.548091345012</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>24.85574635752915</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.7802744481567</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2289778435317</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5395717772072</v>
+        <v>136.563183876413</v>
       </c>
       <c r="H18" t="n">
-        <v>104.4710243243052</v>
+        <v>104.6990674929509</v>
       </c>
       <c r="I18" t="n">
-        <v>42.66466435760601</v>
+        <v>62.52989468754936</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.24269869534076</v>
+        <v>51.70872008287456</v>
       </c>
       <c r="S18" t="n">
-        <v>156.7502381664491</v>
+        <v>85.58144057857166</v>
       </c>
       <c r="T18" t="n">
-        <v>196.924264617027</v>
+        <v>197.0194379467206</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8884909371588</v>
+        <v>225.8900443647381</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>106.6592074433068</v>
       </c>
       <c r="V19" t="n">
-        <v>149.3249725426656</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.8001683373802</v>
+        <v>413.8442992113257</v>
       </c>
       <c r="H20" t="n">
-        <v>37.88348054089164</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.48335682900648</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.7802744481567</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.5183529885095</v>
+        <v>216.7115358892058</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2254473736161</v>
+        <v>251.2289778435317</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>163.959183897108</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5395717772072</v>
+        <v>136.563183876413</v>
       </c>
       <c r="H21" t="n">
-        <v>104.4710243243052</v>
+        <v>104.6990674929509</v>
       </c>
       <c r="I21" t="n">
-        <v>61.71693425436624</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.24269869534078</v>
+        <v>42.63123279598233</v>
       </c>
       <c r="S21" t="n">
-        <v>156.7502381664491</v>
+        <v>157.1888225530135</v>
       </c>
       <c r="T21" t="n">
-        <v>177.8719947202662</v>
+        <v>197.0194379467206</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8884909371588</v>
+        <v>225.8900443647381</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>149.3249725426655</v>
+        <v>106.6592074433068</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,10 +2335,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -2377,7 +2377,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>253.9620394059545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>20.13349987277644</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498666</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>125.3787979092682</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.44045292477195</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>353.5759586385873</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>111.5804705304104</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>249.8929615153103</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>334.5817096732201</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T30" t="n">
         <v>196.8897623984489</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>156.1271626621471</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>43.63713914691597</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>175.2172177275207</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034768</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>14.9138545113332</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,16 +3271,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>216.1357776764018</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>264.3003558422769</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>113.7145621736546</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,7 +3757,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>135.1125116603684</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>59.03226091544995</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>156.1271626621471</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>215.5834727383622</v>
+        <v>151.1245242354502</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,7 +4067,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933832</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>136.5310119231965</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>8.787420751036422</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>36.72126511067018</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W2" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U3" t="n">
-        <v>914.2479596093278</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V3" t="n">
-        <v>679.0958513775852</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W3" t="n">
-        <v>435.6470747334852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>227.7955745279523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4509,22 +4509,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4600,19 +4600,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>419.9752190668252</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>419.9752190668252</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>271.040809405574</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>111.8033544001185</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>627.7355178317791</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W6" t="n">
-        <v>627.7355178317791</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X6" t="n">
-        <v>627.7355178317791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>419.9752190668252</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4755,22 +4755,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D8" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>307.1033079837604</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="U9" t="n">
-        <v>542.2554162155031</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="V9" t="n">
-        <v>307.1033079837604</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="W9" t="n">
-        <v>307.1033079837604</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X9" t="n">
-        <v>307.1033079837604</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y9" t="n">
-        <v>307.1033079837604</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>761.8606052340169</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C11" t="n">
-        <v>761.8606052340169</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="D11" t="n">
-        <v>761.8606052340169</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="E11" t="n">
-        <v>761.8606052340169</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="F11" t="n">
-        <v>761.8606052340169</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G11" t="n">
-        <v>495.9595608383938</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H11" t="n">
-        <v>230.0585164427707</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I11" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J11" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K11" t="n">
-        <v>135.7250809573683</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
-        <v>330.2546714142364</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>563.3128681098028</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N11" t="n">
-        <v>785.5101925369336</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
-        <v>950.1371873885148</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P11" t="n">
-        <v>1052.968135806668</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q11" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S11" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>1027.76164962964</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U11" t="n">
-        <v>1027.76164962964</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V11" t="n">
-        <v>1027.76164962964</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W11" t="n">
-        <v>1027.76164962964</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X11" t="n">
-        <v>761.8606052340169</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y11" t="n">
-        <v>761.8606052340169</v>
+        <v>825.6800813726992</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.05936271613335</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C12" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D12" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E12" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F12" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G12" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H12" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I12" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>24.95018035683216</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K12" t="n">
-        <v>150.3077404146696</v>
+        <v>147.4500811540258</v>
       </c>
       <c r="L12" t="n">
-        <v>390.9112683095321</v>
+        <v>377.413187022375</v>
       </c>
       <c r="M12" t="n">
-        <v>621.5712441093544</v>
+        <v>399.8342145467769</v>
       </c>
       <c r="N12" t="n">
-        <v>621.5712441093544</v>
+        <v>673.2291631121088</v>
       </c>
       <c r="O12" t="n">
-        <v>870.3246581933167</v>
+        <v>921.9825771960711</v>
       </c>
       <c r="P12" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q12" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>850.9830782217434</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>718.3003278816105</v>
+        <v>893.7865155427926</v>
       </c>
       <c r="V12" t="n">
-        <v>483.1482196498678</v>
+        <v>658.6344073110499</v>
       </c>
       <c r="W12" t="n">
-        <v>228.9108629216662</v>
+        <v>404.3970505828483</v>
       </c>
       <c r="X12" t="n">
-        <v>21.05936271613335</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="Y12" t="n">
-        <v>21.05936271613335</v>
+        <v>196.5455503773155</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C13" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D13" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E13" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F13" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G13" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H13" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I13" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J13" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K13" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L13" t="n">
-        <v>54.48163939360305</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M13" t="n">
-        <v>100.1098670955241</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N13" t="n">
-        <v>150.08777394865</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>180.2341645716486</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P13" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q13" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R13" t="n">
-        <v>21.05936271613335</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>21.05936271613335</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>21.05936271613335</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>21.05936271613335</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>21.05936271613335</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X13" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.19784761800414</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C14" t="n">
-        <v>25.19784761800414</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="D14" t="n">
-        <v>25.19784761800414</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="E14" t="n">
-        <v>25.19784761800414</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F14" t="n">
-        <v>25.19784761800414</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G14" t="n">
-        <v>25.19784761800414</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H14" t="n">
-        <v>25.19784761800414</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I14" t="n">
-        <v>25.19784761800414</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J14" t="n">
-        <v>21.05936271613336</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K14" t="n">
-        <v>135.7250809573684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L14" t="n">
-        <v>330.2546714142364</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M14" t="n">
-        <v>563.3128681098028</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N14" t="n">
-        <v>785.5101925369336</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O14" t="n">
-        <v>950.1371873885149</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P14" t="n">
-        <v>1052.968135806668</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q14" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R14" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S14" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T14" t="n">
-        <v>1052.968135806668</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="U14" t="n">
-        <v>1052.968135806668</v>
+        <v>626.0261199015633</v>
       </c>
       <c r="V14" t="n">
-        <v>1052.968135806668</v>
+        <v>626.0261199015633</v>
       </c>
       <c r="W14" t="n">
-        <v>822.9009808048737</v>
+        <v>626.0261199015633</v>
       </c>
       <c r="X14" t="n">
-        <v>556.9999364092505</v>
+        <v>626.0261199015633</v>
       </c>
       <c r="Y14" t="n">
-        <v>291.0988920136273</v>
+        <v>626.0261199015633</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>329.2312273828401</v>
+        <v>476.7989437360102</v>
       </c>
       <c r="C15" t="n">
-        <v>329.2312273828401</v>
+        <v>476.7989437360102</v>
       </c>
       <c r="D15" t="n">
-        <v>180.2968177215889</v>
+        <v>327.864534074759</v>
       </c>
       <c r="E15" t="n">
-        <v>21.05936271613336</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F15" t="n">
-        <v>21.05936271613336</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G15" t="n">
-        <v>21.05936271613336</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H15" t="n">
-        <v>21.05936271613336</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I15" t="n">
-        <v>21.05936271613336</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J15" t="n">
-        <v>24.95018035683217</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K15" t="n">
-        <v>150.3077404146696</v>
+        <v>153.7567014710228</v>
       </c>
       <c r="L15" t="n">
-        <v>150.3077404146696</v>
+        <v>399.9121680637238</v>
       </c>
       <c r="M15" t="n">
-        <v>410.9173540268199</v>
+        <v>673.3071166290556</v>
       </c>
       <c r="N15" t="n">
-        <v>524.9036321565291</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O15" t="n">
-        <v>785.3166962490212</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P15" t="n">
-        <v>977.3180709271199</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q15" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R15" t="n">
-        <v>1052.968135806668</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S15" t="n">
-        <v>880.4795283993087</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="T15" t="n">
-        <v>678.4944708143846</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="U15" t="n">
-        <v>564.3833356145828</v>
+        <v>779.9621455744993</v>
       </c>
       <c r="V15" t="n">
-        <v>329.2312273828401</v>
+        <v>779.9621455744993</v>
       </c>
       <c r="W15" t="n">
-        <v>329.2312273828401</v>
+        <v>525.7247888462978</v>
       </c>
       <c r="X15" t="n">
-        <v>329.2312273828401</v>
+        <v>525.7247888462978</v>
       </c>
       <c r="Y15" t="n">
-        <v>329.2312273828401</v>
+        <v>525.7247888462978</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C16" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D16" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E16" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F16" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G16" t="n">
-        <v>21.05936271613336</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H16" t="n">
-        <v>21.05936271613336</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I16" t="n">
-        <v>21.05936271613336</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J16" t="n">
-        <v>21.05936271613336</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K16" t="n">
-        <v>21.05936271613336</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L16" t="n">
-        <v>54.48163939360305</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M16" t="n">
-        <v>100.1098670955241</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N16" t="n">
-        <v>150.08777394865</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O16" t="n">
-        <v>180.2341645716486</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P16" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q16" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R16" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S16" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T16" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U16" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V16" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W16" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X16" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y16" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2477.004684424093</v>
+        <v>1316.584046358683</v>
       </c>
       <c r="C17" t="n">
-        <v>2108.042167483682</v>
+        <v>1316.584046358683</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.776468876931</v>
+        <v>958.3183477519326</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.988216278687</v>
+        <v>881.5634092779092</v>
       </c>
       <c r="F17" t="n">
-        <v>953.002311489079</v>
+        <v>470.5775044883016</v>
       </c>
       <c r="G17" t="n">
-        <v>535.0223434715233</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="H17" t="n">
-        <v>207.662125770427</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="I17" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="J17" t="n">
-        <v>167.996742095749</v>
+        <v>163.268460077392</v>
       </c>
       <c r="K17" t="n">
-        <v>460.2328577110568</v>
+        <v>449.947099162624</v>
       </c>
       <c r="L17" t="n">
-        <v>875.0542279590787</v>
+        <v>857.8739283493962</v>
       </c>
       <c r="M17" t="n">
-        <v>1353.229475354095</v>
+        <v>1328.37767037793</v>
       </c>
       <c r="N17" t="n">
-        <v>1824.510100622979</v>
+        <v>1791.862657303191</v>
       </c>
       <c r="O17" t="n">
-        <v>2224.339393288586</v>
+        <v>2184.330749739191</v>
       </c>
       <c r="P17" t="n">
-        <v>2527.91006129353</v>
+        <v>2481.618803655553</v>
       </c>
       <c r="Q17" t="n">
-        <v>2678.657230692463</v>
+        <v>2627.647991519843</v>
       </c>
       <c r="R17" t="n">
-        <v>2653.550416189908</v>
+        <v>2627.647991519843</v>
       </c>
       <c r="S17" t="n">
-        <v>2477.004684424093</v>
+        <v>2627.647991519843</v>
       </c>
       <c r="T17" t="n">
-        <v>2477.004684424093</v>
+        <v>2627.647991519843</v>
       </c>
       <c r="U17" t="n">
-        <v>2477.004684424093</v>
+        <v>2373.881347233448</v>
       </c>
       <c r="V17" t="n">
-        <v>2477.004684424093</v>
+        <v>2042.818459889877</v>
       </c>
       <c r="W17" t="n">
-        <v>2477.004684424093</v>
+        <v>1690.049804619763</v>
       </c>
       <c r="X17" t="n">
-        <v>2477.004684424093</v>
+        <v>1316.584046358683</v>
       </c>
       <c r="Y17" t="n">
-        <v>2477.004684424093</v>
+        <v>1316.584046358683</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>969.2732636652206</v>
+        <v>988.5731653441875</v>
       </c>
       <c r="C18" t="n">
-        <v>794.8202343840936</v>
+        <v>814.1201360630605</v>
       </c>
       <c r="D18" t="n">
-        <v>645.8858247228424</v>
+        <v>665.1857264018092</v>
       </c>
       <c r="E18" t="n">
-        <v>486.6483697173869</v>
+        <v>505.9482713963537</v>
       </c>
       <c r="F18" t="n">
-        <v>340.1138117442719</v>
+        <v>359.4137134232386</v>
       </c>
       <c r="G18" t="n">
-        <v>202.1950523733555</v>
+        <v>221.4711034470639</v>
       </c>
       <c r="H18" t="n">
-        <v>96.66876517708765</v>
+        <v>115.7144696158003</v>
       </c>
       <c r="I18" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="J18" t="n">
-        <v>53.57314461384925</v>
+        <v>124.8009736173956</v>
       </c>
       <c r="K18" t="n">
-        <v>307.4520586353901</v>
+        <v>374.9051797885138</v>
       </c>
       <c r="L18" t="n">
-        <v>710.2279854281257</v>
+        <v>772.6055460484745</v>
       </c>
       <c r="M18" t="n">
-        <v>1232.227715922413</v>
+        <v>1288.682336799738</v>
       </c>
       <c r="N18" t="n">
-        <v>1783.750239411666</v>
+        <v>1834.125157955226</v>
       </c>
       <c r="O18" t="n">
-        <v>2221.869921482401</v>
+        <v>2266.683100156828</v>
       </c>
       <c r="P18" t="n">
-        <v>2556.496523980227</v>
+        <v>2596.845916078026</v>
       </c>
       <c r="Q18" t="n">
-        <v>2678.657230692463</v>
+        <v>2627.647991519843</v>
       </c>
       <c r="R18" t="n">
-        <v>2627.907029990098</v>
+        <v>2575.416961133101</v>
       </c>
       <c r="S18" t="n">
-        <v>2469.573456084594</v>
+        <v>2488.971061558786</v>
       </c>
       <c r="T18" t="n">
-        <v>2270.660057481537</v>
+        <v>2289.961528279271</v>
       </c>
       <c r="U18" t="n">
-        <v>2042.48986461572</v>
+        <v>2061.789766294687</v>
       </c>
       <c r="V18" t="n">
-        <v>1807.337756383977</v>
+        <v>1826.637658062944</v>
       </c>
       <c r="W18" t="n">
-        <v>1553.100399655775</v>
+        <v>1572.400301334742</v>
       </c>
       <c r="X18" t="n">
-        <v>1345.248899450243</v>
+        <v>1364.548801129209</v>
       </c>
       <c r="Y18" t="n">
-        <v>1137.488600685289</v>
+        <v>1156.788502364255</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="C19" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="D19" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="E19" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="F19" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="G19" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="H19" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="I19" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="J19" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="K19" t="n">
-        <v>109.0499203375202</v>
+        <v>105.7528467011321</v>
       </c>
       <c r="L19" t="n">
-        <v>235.567527881399</v>
+        <v>229.3568204186486</v>
       </c>
       <c r="M19" t="n">
-        <v>379.351729053388</v>
+        <v>370.0690032423456</v>
       </c>
       <c r="N19" t="n">
-        <v>525.1516797168517</v>
+        <v>512.8699812875411</v>
       </c>
       <c r="O19" t="n">
-        <v>643.8052370459118</v>
+        <v>628.7535020058466</v>
       </c>
       <c r="P19" t="n">
-        <v>721.8131711474794</v>
+        <v>704.3911912483018</v>
       </c>
       <c r="Q19" t="n">
-        <v>721.8131711474794</v>
+        <v>704.3911912483018</v>
       </c>
       <c r="R19" t="n">
-        <v>721.8131711474794</v>
+        <v>704.3911912483018</v>
       </c>
       <c r="S19" t="n">
-        <v>721.8131711474794</v>
+        <v>704.3911912483018</v>
       </c>
       <c r="T19" t="n">
-        <v>721.8131711474794</v>
+        <v>704.3911912483018</v>
       </c>
       <c r="U19" t="n">
-        <v>721.8131711474794</v>
+        <v>596.6546180732444</v>
       </c>
       <c r="V19" t="n">
-        <v>570.9798655488272</v>
+        <v>341.9701298673575</v>
       </c>
       <c r="W19" t="n">
-        <v>281.5626955118666</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="X19" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1289.767676321921</v>
+        <v>881.5634092779092</v>
       </c>
       <c r="C20" t="n">
-        <v>920.8051593815092</v>
+        <v>881.5634092779092</v>
       </c>
       <c r="D20" t="n">
-        <v>920.8051593815092</v>
+        <v>881.5634092779092</v>
       </c>
       <c r="E20" t="n">
-        <v>920.8051593815092</v>
+        <v>881.5634092779092</v>
       </c>
       <c r="F20" t="n">
-        <v>509.8192545919016</v>
+        <v>470.5775044883016</v>
       </c>
       <c r="G20" t="n">
-        <v>91.83928657434586</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="H20" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="I20" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="J20" t="n">
-        <v>167.9967420957491</v>
+        <v>163.2684600773919</v>
       </c>
       <c r="K20" t="n">
-        <v>460.232857711057</v>
+        <v>449.947099162624</v>
       </c>
       <c r="L20" t="n">
-        <v>875.0542279590791</v>
+        <v>857.8739283493964</v>
       </c>
       <c r="M20" t="n">
-        <v>1353.229475354095</v>
+        <v>1328.37767037793</v>
       </c>
       <c r="N20" t="n">
-        <v>1824.51010062298</v>
+        <v>1791.862657303191</v>
       </c>
       <c r="O20" t="n">
-        <v>2224.339393288586</v>
+        <v>2184.330749739191</v>
       </c>
       <c r="P20" t="n">
-        <v>2527.910061293531</v>
+        <v>2481.618803655553</v>
       </c>
       <c r="Q20" t="n">
-        <v>2678.657230692463</v>
+        <v>2627.647991519843</v>
       </c>
       <c r="R20" t="n">
-        <v>2622.613435915689</v>
+        <v>2627.647991519843</v>
       </c>
       <c r="S20" t="n">
-        <v>2446.067704149874</v>
+        <v>2627.647991519843</v>
       </c>
       <c r="T20" t="n">
-        <v>2227.362297090773</v>
+        <v>2408.747450217615</v>
       </c>
       <c r="U20" t="n">
-        <v>1973.599218935605</v>
+        <v>2154.980805931219</v>
       </c>
       <c r="V20" t="n">
-        <v>1642.536331592035</v>
+        <v>1823.917918587649</v>
       </c>
       <c r="W20" t="n">
-        <v>1289.767676321921</v>
+        <v>1658.302581317843</v>
       </c>
       <c r="X20" t="n">
-        <v>1289.767676321921</v>
+        <v>1658.302581317843</v>
       </c>
       <c r="Y20" t="n">
-        <v>1289.767676321921</v>
+        <v>1268.163249342031</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.5179807326552</v>
+        <v>925.411655558784</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0649514515283</v>
+        <v>750.958626277657</v>
       </c>
       <c r="D21" t="n">
-        <v>665.130541790277</v>
+        <v>602.0242166164057</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8930867848214</v>
+        <v>442.7867616109503</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3585288117064</v>
+        <v>296.2522036378352</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4397694407901</v>
+        <v>158.3095936616604</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9134822445222</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="I21" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="J21" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="K21" t="n">
-        <v>307.45205863539</v>
+        <v>302.657166001515</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2279854281255</v>
+        <v>700.3575322614757</v>
       </c>
       <c r="M21" t="n">
-        <v>1232.227715922413</v>
+        <v>1216.434323012739</v>
       </c>
       <c r="N21" t="n">
-        <v>1783.750239411666</v>
+        <v>1761.877144168227</v>
       </c>
       <c r="O21" t="n">
-        <v>2221.869921482401</v>
+        <v>2194.435086369829</v>
       </c>
       <c r="P21" t="n">
-        <v>2556.496523980227</v>
+        <v>2459.640662045248</v>
       </c>
       <c r="Q21" t="n">
-        <v>2678.657230692463</v>
+        <v>2627.647991519843</v>
       </c>
       <c r="R21" t="n">
-        <v>2627.907029990098</v>
+        <v>2584.58614021077</v>
       </c>
       <c r="S21" t="n">
-        <v>2469.573456084594</v>
+        <v>2425.809551773383</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.904774548972</v>
+        <v>2226.800018493867</v>
       </c>
       <c r="U21" t="n">
-        <v>2061.734581683154</v>
+        <v>1998.628256509283</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.582473451411</v>
+        <v>1763.47614827754</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.34511672321</v>
+        <v>1509.238791549339</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.493616517677</v>
+        <v>1301.387291343806</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.733317752723</v>
+        <v>1093.626992578852</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="C22" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="D22" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="E22" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="F22" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="G22" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="H22" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="I22" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="J22" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="K22" t="n">
-        <v>109.0499203375202</v>
+        <v>105.7528467011321</v>
       </c>
       <c r="L22" t="n">
-        <v>235.567527881399</v>
+        <v>229.3568204186486</v>
       </c>
       <c r="M22" t="n">
-        <v>379.3517290533879</v>
+        <v>370.0690032423456</v>
       </c>
       <c r="N22" t="n">
-        <v>525.1516797168516</v>
+        <v>512.8699812875411</v>
       </c>
       <c r="O22" t="n">
-        <v>643.8052370459117</v>
+        <v>628.7535020058466</v>
       </c>
       <c r="P22" t="n">
-        <v>721.8131711474792</v>
+        <v>704.3911912483018</v>
       </c>
       <c r="Q22" t="n">
-        <v>721.8131711474792</v>
+        <v>704.3911912483018</v>
       </c>
       <c r="R22" t="n">
-        <v>721.8131711474792</v>
+        <v>704.3911912483018</v>
       </c>
       <c r="S22" t="n">
-        <v>721.8131711474792</v>
+        <v>704.3911912483018</v>
       </c>
       <c r="T22" t="n">
-        <v>721.8131711474792</v>
+        <v>704.3911912483018</v>
       </c>
       <c r="U22" t="n">
-        <v>570.9798655488272</v>
+        <v>596.6546180732444</v>
       </c>
       <c r="V22" t="n">
-        <v>570.9798655488272</v>
+        <v>341.9701298673575</v>
       </c>
       <c r="W22" t="n">
-        <v>281.5626955118666</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="X22" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.57314461384925</v>
+        <v>52.55295983039687</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C23" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D23" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E23" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6025,16 +6025,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>1737.019148941773</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W23" t="n">
-        <v>1737.019148941773</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X23" t="n">
-        <v>1363.553390680693</v>
+        <v>1289.017815868389</v>
       </c>
       <c r="Y23" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.680947310029</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036444</v>
@@ -6071,22 +6071,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152625</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2476.356511874692</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C25" t="n">
-        <v>2476.356511874692</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D25" t="n">
-        <v>2476.356511874692</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E25" t="n">
-        <v>2476.356511874692</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F25" t="n">
-        <v>2349.71126146129</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G25" t="n">
-        <v>2180.711461199622</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>670.1083246864625</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>670.1083246864625</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>670.1083246864625</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>670.1083246864625</v>
       </c>
       <c r="W25" t="n">
-        <v>2697.149091018222</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="X25" t="n">
-        <v>2697.149091018222</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y25" t="n">
-        <v>2476.356511874692</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>952.5674858910851</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C26" t="n">
-        <v>952.5674858910851</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D26" t="n">
-        <v>952.5674858910851</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.483574129469</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859355</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X26" t="n">
-        <v>952.5674858910851</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="Y26" t="n">
-        <v>952.5674858910851</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6311,19 +6311,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>473.4444960005474</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W28" t="n">
-        <v>184.0273259635867</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1749.341643278937</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C29" t="n">
-        <v>1749.341643278937</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D29" t="n">
-        <v>1749.341643278937</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E29" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2135.941483343059</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>2135.941483343059</v>
+        <v>2359.18776811598</v>
       </c>
       <c r="X29" t="n">
-        <v>2135.941483343059</v>
+        <v>1985.7220098549</v>
       </c>
       <c r="Y29" t="n">
-        <v>2135.941483343059</v>
+        <v>1595.582677879088</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>368.8844281164659</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>773.5003462121377</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1297.647259770169</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1851.37379586972</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2291.509718890064</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2627.754532504893</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6569,16 +6569,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>211.6471865296039</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036444</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1139.146815977588</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C32" t="n">
-        <v>770.1842990371763</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D32" t="n">
-        <v>770.1842990371763</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E32" t="n">
-        <v>384.396046438932</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>384.396046438932</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>384.396046438932</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6733,19 +6733,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W32" t="n">
-        <v>2289.351746278601</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X32" t="n">
-        <v>1915.885988017521</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y32" t="n">
-        <v>1525.74665604171</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,7 +6818,7 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
         <v>1364.473611002105</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>184.2708856551153</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="C34" t="n">
-        <v>184.2708856551153</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036444</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036444</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6891,19 +6891,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>184.2708856551153</v>
+        <v>713.064484700037</v>
       </c>
       <c r="X34" t="n">
-        <v>184.2708856551153</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="Y34" t="n">
-        <v>184.2708856551153</v>
+        <v>485.0749338020197</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>999.4901647174274</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C35" t="n">
-        <v>630.5276477770158</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D35" t="n">
-        <v>272.2619491702653</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E35" t="n">
-        <v>272.2619491702653</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6937,10 +6937,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224076</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2112.324418312743</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>1759.555763042629</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>1386.090004781549</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y35" t="n">
-        <v>1386.090004781549</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="36">
@@ -6998,19 +6998,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7028,19 +7028,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
         <v>2488.762748073963</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2334.714009270569</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="T37" t="n">
-        <v>2107.405821939171</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="U37" t="n">
-        <v>2022.963088632153</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="V37" t="n">
-        <v>2022.963088632153</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="W37" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X37" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>576.3714747656866</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>207.4089578252748</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D38" t="n">
-        <v>207.4089578252748</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E38" t="n">
-        <v>207.4089578252748</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F38" t="n">
-        <v>207.4089578252748</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>1726.5764050667</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>1726.5764050667</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>1353.11064680562</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y38" t="n">
-        <v>962.9713148298083</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>473.4444960005474</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C40" t="n">
-        <v>473.4444960005474</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D40" t="n">
-        <v>473.4444960005474</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E40" t="n">
-        <v>473.4444960005474</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F40" t="n">
-        <v>326.554548502637</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7371,13 +7371,13 @@
         <v>473.4444960005474</v>
       </c>
       <c r="W40" t="n">
-        <v>473.4444960005474</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X40" t="n">
-        <v>473.4444960005474</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y40" t="n">
-        <v>473.4444960005474</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1954.141365880777</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C41" t="n">
-        <v>1954.141365880777</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>1595.875667274027</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7411,19 +7411,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7441,22 +7441,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2560.6718065128</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2306.910021150891</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V41" t="n">
-        <v>2306.910021150891</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W41" t="n">
-        <v>1954.141365880777</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X41" t="n">
-        <v>1954.141365880777</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y41" t="n">
-        <v>1954.141365880777</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7493,22 +7493,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7517,16 +7517,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7599,13 +7599,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>211.6471865296039</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
         <v>53.94298182036445</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1865.381229508782</v>
+        <v>1695.806495672432</v>
       </c>
       <c r="C44" t="n">
-        <v>1496.41871256837</v>
+        <v>1695.806495672432</v>
       </c>
       <c r="D44" t="n">
-        <v>1138.15301396162</v>
+        <v>1337.540797065682</v>
       </c>
       <c r="E44" t="n">
-        <v>752.3647613633752</v>
+        <v>951.7525444674375</v>
       </c>
       <c r="F44" t="n">
-        <v>534.603677789272</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036444</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548715</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548715</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548715</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548715</v>
+        <v>1695.806495672432</v>
       </c>
       <c r="X44" t="n">
-        <v>2642.120401548715</v>
+        <v>1695.806495672432</v>
       </c>
       <c r="Y44" t="n">
-        <v>2251.981069572903</v>
+        <v>1695.806495672432</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
         <v>359.3385232961344</v>
@@ -7730,46 +7730,46 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036444</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I46" t="n">
         <v>53.94298182036444</v>
@@ -7830,28 +7830,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>571.1061430638138</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>571.1061430638138</v>
+        <v>691.0367972259593</v>
       </c>
       <c r="U46" t="n">
-        <v>281.9325327183818</v>
+        <v>691.0367972259593</v>
       </c>
       <c r="V46" t="n">
-        <v>281.9325327183818</v>
+        <v>691.0367972259593</v>
       </c>
       <c r="W46" t="n">
-        <v>281.9325327183818</v>
+        <v>691.0367972259593</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036444</v>
+        <v>691.0367972259593</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036444</v>
+        <v>691.0367972259593</v>
       </c>
     </row>
   </sheetData>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>375.1239084672934</v>
+        <v>164.7815364719193</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>407.4982257856888</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>133.6630807868109</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>405.3760678736853</v>
+        <v>418.2905476243738</v>
       </c>
       <c r="N15" t="n">
-        <v>246.4793667598072</v>
+        <v>297.8287066258409</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>171.0949816030085</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>53.11324363636967</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>160.7535040226139</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>145.0294169142006</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>262.9346646783187</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22594,22 +22594,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>36.26901108812098</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22749,10 +22749,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22798,7 +22798,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22840,19 +22840,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W5" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22868,13 +22868,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>142.8688560677923</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22883,7 +22883,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22995,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23023,19 +23023,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>134.469915878258</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23074,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23117,7 +23117,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23150,22 +23150,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>88.65127904629614</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>8.522388873614773</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>139.4951843944459</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G11" t="n">
-        <v>151.9681874521645</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H11" t="n">
-        <v>75.28528753921148</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>144.0576027644701</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>206.9118586999128</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>197.7364389716423</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>106.4890667268022</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2940166796957</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>111.757373777286</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>87.69233988828962</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>97.08446202703753</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>170.7637213332854</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>94.58220263348571</v>
+        <v>17.20528236823077</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
-        <v>161.8582038473137</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>154.2024705022107</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J13" t="n">
-        <v>90.42516245839141</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>17.44799951871611</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.68702246598916</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>15.59235192972113</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
-        <v>223.2933741908973</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
-        <v>227.7682732010226</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>119.4918077118136</v>
+        <v>337.1526062508705</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832747</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.2102214038314</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H14" t="n">
-        <v>338.5273214908784</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I14" t="n">
-        <v>206.9091621893709</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>144.0576027644701</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S14" t="n">
-        <v>206.9118586999128</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T14" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>121.4744852656369</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>106.4890667268021</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.9959047043866</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>118.0965969906827</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2940166796957</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H15" t="n">
-        <v>111.757373777286</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I15" t="n">
-        <v>87.69233988828962</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U15" t="n">
-        <v>112.9681016224135</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23667,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>8.114410708933576</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H16" t="n">
-        <v>161.8582038473137</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I16" t="n">
-        <v>154.2024705022107</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J16" t="n">
-        <v>90.42516245839141</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K16" t="n">
-        <v>17.44799951871611</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.68702246598916</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R16" t="n">
-        <v>175.4274210366964</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S16" t="n">
-        <v>223.2933741908973</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T16" t="n">
-        <v>227.7682732010226</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>77.0064493759501</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23734,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>305.9429809829786</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>324.5385708368794</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>154.249446862795</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>30.6276104714773</v>
+        <v>58.25549283948411</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>175.7859067381892</v>
       </c>
       <c r="T17" t="n">
-        <v>216.5183529885095</v>
+        <v>216.7115358892058</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2254473736161</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.05226989676022</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>71.60738197444181</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3169785531093</v>
+        <v>167.3367741439016</v>
       </c>
       <c r="H19" t="n">
-        <v>156.234692619878</v>
+        <v>156.4106934180136</v>
       </c>
       <c r="I19" t="n">
-        <v>135.1814325263854</v>
+        <v>135.7767399294862</v>
       </c>
       <c r="J19" t="n">
-        <v>45.70732317846587</v>
+        <v>47.10687144748479</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.72366672374995</v>
+        <v>31.38127751273455</v>
       </c>
       <c r="R19" t="n">
-        <v>146.9878642566383</v>
+        <v>147.8779460026287</v>
       </c>
       <c r="S19" t="n">
-        <v>212.2706021837458</v>
+        <v>212.6155853432815</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0657678054247</v>
+        <v>225.1503489660829</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2822656761991</v>
+        <v>179.62413799239</v>
       </c>
       <c r="V19" t="n">
-        <v>102.8126707811624</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2031349831936</v>
+        <v>324.5385708368794</v>
       </c>
       <c r="I20" t="n">
-        <v>152.548091345012</v>
+        <v>154.249446862795</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>58.25549283948411</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>175.7859067381892</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>185.281784820305</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>62.52989468754936</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.077487286892236</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>19.05226989676075</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3169785531093</v>
+        <v>167.3367741439016</v>
       </c>
       <c r="H22" t="n">
-        <v>156.234692619878</v>
+        <v>156.4106934180136</v>
       </c>
       <c r="I22" t="n">
-        <v>135.1814325263854</v>
+        <v>135.7767399294862</v>
       </c>
       <c r="J22" t="n">
-        <v>45.70732317846588</v>
+        <v>47.10687144748479</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.72366672374997</v>
+        <v>31.38127751273455</v>
       </c>
       <c r="R22" t="n">
-        <v>146.9878642566383</v>
+        <v>147.8779460026287</v>
       </c>
       <c r="S22" t="n">
-        <v>212.2706021837458</v>
+        <v>212.6155853432815</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0657678054247</v>
+        <v>225.1503489660829</v>
       </c>
       <c r="U22" t="n">
-        <v>136.9572931335336</v>
+        <v>179.62413799239</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24214,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>73.79021906418043</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>366.1044387832771</v>
       </c>
     </row>
     <row r="24">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>20.04225011366307</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,10 +24384,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>154.7050860252469</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24448,22 +24448,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>16.15514203988175</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>274.6574681256432</v>
       </c>
     </row>
     <row r="27">
@@ -24618,13 +24618,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>61.53161905815483</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24657,16 +24657,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>96.92615468724705</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24736,19 +24736,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>77.85929695482457</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>14.65925904419294</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>96.0104806616809</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>339.0967025165646</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>148.7055550368365</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,16 +24973,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>19.59084822180904</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25095,7 +25095,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>45.199959188537</v>
@@ -25131,16 +25131,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>271.6091438252578</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>190.7402680653096</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25210,19 +25210,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25359,22 +25359,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>123.0794055939013</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>202.6835682680295</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049790008</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>63.45190262785803</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>53.59524008539628</v>
+        <v>38.52630155726081</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25681,22 +25681,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>81.33580869728939</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>192.1919065928394</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25839,16 +25839,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>96.01048066168093</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>191.2925730033492</v>
+        <v>255.7515215062612</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>45.19995918853701</v>
@@ -26070,16 +26070,16 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>203.3581181989825</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>188.3138403474141</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448633.8158345977</v>
+        <v>448633.8158345976</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>468018.406579494</v>
+        <v>478390.949385258</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>468018.406579494</v>
+        <v>478390.949385258</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>777201.7044290397</v>
+        <v>767518.5301677281</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>777201.7044290398</v>
+        <v>767518.530167728</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780712.0470425456</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780712.0470425456</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425456</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>780712.0470425459</v>
+        <v>780712.0470425456</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425456</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>780712.0470425459</v>
+        <v>780712.0470425456</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>132928.5380250659</v>
       </c>
       <c r="C2" t="n">
-        <v>132928.5380250658</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>138672.1204679983</v>
+        <v>141745.4664845208</v>
       </c>
       <c r="F2" t="n">
-        <v>138672.1204679983</v>
+        <v>141745.4664845207</v>
       </c>
       <c r="G2" t="n">
-        <v>230281.9864974931</v>
+        <v>227412.8978274749</v>
       </c>
       <c r="H2" t="n">
-        <v>230281.9864974933</v>
+        <v>227412.8978274747</v>
       </c>
       <c r="I2" t="n">
         <v>231322.0880126061</v>
@@ -26349,13 +26349,13 @@
         <v>231322.0880126062</v>
       </c>
       <c r="N2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="O2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126059</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25125.73635942195</v>
+        <v>38628.88112923567</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>384098.3586013296</v>
+        <v>359192.6012996557</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4224.969304204815</v>
+        <v>15879.41974556704</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5539.242983423075</v>
+        <v>8757.582995213648</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>97805.92659334037</v>
+        <v>91629.18802282492</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>196.6176664714449</v>
+        <v>206.5374179011836</v>
       </c>
       <c r="F4" t="n">
-        <v>196.6176664714449</v>
+        <v>206.5374179011836</v>
       </c>
       <c r="G4" t="n">
-        <v>509.5424532399969</v>
+        <v>499.7056233638517</v>
       </c>
       <c r="H4" t="n">
-        <v>509.5424532399968</v>
+        <v>499.7056233638518</v>
       </c>
       <c r="I4" t="n">
         <v>513.1084990597035</v>
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>16506.80740683336</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>16506.80740683336</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="G5" t="n">
-        <v>48863.64691519556</v>
+        <v>47848.9957830839</v>
       </c>
       <c r="H5" t="n">
-        <v>48863.64691519555</v>
+        <v>47848.9957830839</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3698.305232052546</v>
+        <v>-8519.705387987919</v>
       </c>
       <c r="C6" t="n">
-        <v>84467.7367636002</v>
+        <v>72249.72614355982</v>
       </c>
       <c r="D6" t="n">
-        <v>84467.73676360026</v>
+        <v>72249.72614355979</v>
       </c>
       <c r="E6" t="n">
-        <v>96842.95903527152</v>
+        <v>73689.31582927924</v>
       </c>
       <c r="F6" t="n">
-        <v>121968.6953946935</v>
+        <v>112318.1969585149</v>
       </c>
       <c r="G6" t="n">
-        <v>-203189.5614722721</v>
+        <v>-186441.1430110185</v>
       </c>
       <c r="H6" t="n">
-        <v>180908.7971290577</v>
+        <v>172751.4582886371</v>
       </c>
       <c r="I6" t="n">
-        <v>177352.5321459321</v>
+        <v>159629.6679587507</v>
       </c>
       <c r="J6" t="n">
-        <v>118517.5588510307</v>
+        <v>112449.1451052115</v>
       </c>
       <c r="K6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043177</v>
       </c>
       <c r="L6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043177</v>
       </c>
       <c r="M6" t="n">
-        <v>176038.2584667139</v>
+        <v>166751.5047091042</v>
       </c>
       <c r="N6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043178</v>
       </c>
       <c r="O6" t="n">
-        <v>83771.57485679649</v>
+        <v>83879.89968149288</v>
       </c>
       <c r="P6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043176</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.01338268678962</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="F3" t="n">
-        <v>23.01338268678962</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="G3" t="n">
-        <v>373.7640829665194</v>
+        <v>362.7865280725817</v>
       </c>
       <c r="H3" t="n">
-        <v>373.7640829665193</v>
+        <v>362.7865280725817</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,34 +26798,34 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>263.2420339516669</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>263.2420339516669</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G4" t="n">
-        <v>669.6643076731157</v>
+        <v>656.9119978799608</v>
       </c>
       <c r="H4" t="n">
-        <v>669.6643076731157</v>
+        <v>656.9119978799608</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.01338268678962</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>350.7507002797298</v>
+        <v>327.7652673534564</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.979581250567264</v>
+        <v>14.95713614450494</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22.22774507400783</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>406.4222737214487</v>
+        <v>380.7554841776053</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.622965081439816</v>
+        <v>17.37527487459465</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>22.22774507400794</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>406.4222737214487</v>
+        <v>380.7554841776054</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>22.22774507400783</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>406.4222737214487</v>
+        <v>380.7554841776053</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09251611130367678</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H11" t="n">
-        <v>0.94748062488878</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I11" t="n">
-        <v>3.566727381035002</v>
+        <v>5.427767452760121</v>
       </c>
       <c r="J11" t="n">
-        <v>7.852189301760444</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>11.76839629324508</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L11" t="n">
-        <v>14.59973623455499</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M11" t="n">
-        <v>16.24501962895175</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N11" t="n">
-        <v>16.50788103019332</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O11" t="n">
-        <v>15.58792394841738</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P11" t="n">
-        <v>13.30393245060786</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544932</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R11" t="n">
-        <v>5.811515176679592</v>
+        <v>8.843836255870382</v>
       </c>
       <c r="S11" t="n">
-        <v>2.108210886332537</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4049892772318453</v>
+        <v>0.6163037941626981</v>
       </c>
       <c r="U11" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.07532874947132621</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4780704592104787</v>
+        <v>0.727517133052019</v>
       </c>
       <c r="I12" t="n">
-        <v>1.704292963125458</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J12" t="n">
-        <v>4.676710155246559</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>10.74790103688226</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -31861,19 +31861,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.318693299210613</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.073372125605603</v>
+        <v>4.676990252263572</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9194497705523959</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1995216857467891</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U12" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.06315309310006209</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3689686601259058</v>
+        <v>0.5614884095623707</v>
       </c>
       <c r="I13" t="n">
-        <v>1.248004425047542</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J13" t="n">
-        <v>2.934017658281358</v>
+        <v>4.46492368217439</v>
       </c>
       <c r="K13" t="n">
-        <v>4.821492307166741</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L13" t="n">
-        <v>6.169850171471433</v>
+        <v>9.389142586894687</v>
       </c>
       <c r="M13" t="n">
-        <v>6.505241928988742</v>
+        <v>9.899534402948822</v>
       </c>
       <c r="N13" t="n">
-        <v>6.35056181584803</v>
+        <v>9.664145601394054</v>
       </c>
       <c r="O13" t="n">
-        <v>5.865771705150903</v>
+        <v>8.926402650179689</v>
       </c>
       <c r="P13" t="n">
-        <v>5.019181037131949</v>
+        <v>7.638079550938415</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.475020785705232</v>
+        <v>5.288210368587927</v>
       </c>
       <c r="R13" t="n">
-        <v>1.865970340473138</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S13" t="n">
-        <v>0.723223846075011</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09251611130367678</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H14" t="n">
-        <v>0.94748062488878</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I14" t="n">
-        <v>3.566727381035002</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J14" t="n">
-        <v>7.852189301760444</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
-        <v>11.76839629324508</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L14" t="n">
-        <v>14.59973623455499</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M14" t="n">
-        <v>16.24501962895175</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N14" t="n">
-        <v>16.50788103019332</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O14" t="n">
-        <v>15.58792394841738</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P14" t="n">
-        <v>13.30393245060786</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544932</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R14" t="n">
-        <v>5.811515176679592</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S14" t="n">
-        <v>2.108210886332537</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4049892772318453</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U14" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4780704592104787</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I15" t="n">
-        <v>1.704292963125458</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J15" t="n">
-        <v>4.676710155246559</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -32092,25 +32092,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>11.77742425104034</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P15" t="n">
-        <v>9.452421277523079</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.318693299210613</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.073372125605603</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9194497705523959</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1995216857467891</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U15" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3689686601259058</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I16" t="n">
-        <v>1.248004425047542</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J16" t="n">
-        <v>2.934017658281358</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K16" t="n">
-        <v>4.821492307166741</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L16" t="n">
-        <v>6.169850171471433</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M16" t="n">
-        <v>6.505241928988742</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N16" t="n">
-        <v>6.35056181584803</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O16" t="n">
-        <v>5.865771705150903</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P16" t="n">
-        <v>5.019181037131949</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.475020785705232</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R16" t="n">
-        <v>1.865970340473138</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S16" t="n">
-        <v>0.723223846075011</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.502569177754851</v>
+        <v>1.458438303809372</v>
       </c>
       <c r="H17" t="n">
-        <v>15.38818659168187</v>
+        <v>14.93623127888774</v>
       </c>
       <c r="I17" t="n">
-        <v>57.92779822539394</v>
+        <v>56.22644270761089</v>
       </c>
       <c r="J17" t="n">
-        <v>127.5286807504709</v>
+        <v>123.7831279879408</v>
       </c>
       <c r="K17" t="n">
-        <v>191.1324340448338</v>
+        <v>185.5188213881916</v>
       </c>
       <c r="L17" t="n">
-        <v>237.1166855185488</v>
+        <v>230.1525026283977</v>
       </c>
       <c r="M17" t="n">
-        <v>263.8380001334467</v>
+        <v>256.0890048137676</v>
       </c>
       <c r="N17" t="n">
-        <v>268.1071748097426</v>
+        <v>260.2327926444661</v>
       </c>
       <c r="O17" t="n">
-        <v>253.1660025484428</v>
+        <v>245.7304467609616</v>
       </c>
       <c r="P17" t="n">
-        <v>216.0713259726199</v>
+        <v>209.7252511356677</v>
       </c>
       <c r="Q17" t="n">
-        <v>162.2605672942743</v>
+        <v>157.4949293804945</v>
       </c>
       <c r="R17" t="n">
-        <v>94.38576111214323</v>
+        <v>91.61362510166558</v>
       </c>
       <c r="S17" t="n">
-        <v>34.2397951380887</v>
+        <v>33.23416284805611</v>
       </c>
       <c r="T17" t="n">
-        <v>6.577496575621863</v>
+        <v>6.384313674925531</v>
       </c>
       <c r="U17" t="n">
-        <v>0.120205534220388</v>
+        <v>0.1166750643047498</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8039453860034569</v>
+        <v>0.7803332867976286</v>
       </c>
       <c r="H18" t="n">
-        <v>7.764419912191283</v>
+        <v>7.536376743545519</v>
       </c>
       <c r="I18" t="n">
-        <v>27.67969859704885</v>
+        <v>26.86673816386572</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>73.72438303029702</v>
       </c>
       <c r="K18" t="n">
-        <v>129.8195494582863</v>
+        <v>126.0067132457381</v>
       </c>
       <c r="L18" t="n">
-        <v>174.5584049741278</v>
+        <v>169.431576153143</v>
       </c>
       <c r="M18" t="n">
-        <v>203.7014252167531</v>
+        <v>197.718657799557</v>
       </c>
       <c r="N18" t="n">
-        <v>209.0927958097324</v>
+        <v>202.9516823412832</v>
       </c>
       <c r="O18" t="n">
-        <v>191.2790585724979</v>
+        <v>185.6611395127673</v>
       </c>
       <c r="P18" t="n">
-        <v>153.5183079641163</v>
+        <v>149.0094326341893</v>
       </c>
       <c r="Q18" t="n">
-        <v>53.29913959485467</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.91513545730237</v>
+        <v>48.44911406976857</v>
       </c>
       <c r="S18" t="n">
-        <v>14.93293293738876</v>
+        <v>14.49434855082436</v>
       </c>
       <c r="T18" t="n">
-        <v>3.240464077794634</v>
+        <v>3.145290748100967</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05289114381601692</v>
+        <v>0.05133771623668611</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6740008053494612</v>
+        <v>0.6542052145571144</v>
       </c>
       <c r="H19" t="n">
-        <v>5.992479887561577</v>
+        <v>5.816479089425985</v>
       </c>
       <c r="I19" t="n">
-        <v>20.26904240087289</v>
+        <v>19.67373499777214</v>
       </c>
       <c r="J19" t="n">
-        <v>47.6518569382069</v>
+        <v>46.25230866918799</v>
       </c>
       <c r="K19" t="n">
-        <v>78.30663902151011</v>
+        <v>76.00675129127201</v>
       </c>
       <c r="L19" t="n">
-        <v>100.205537915319</v>
+        <v>97.26247344424593</v>
       </c>
       <c r="M19" t="n">
-        <v>105.6526898785523</v>
+        <v>102.5496410418938</v>
       </c>
       <c r="N19" t="n">
-        <v>103.1405050586135</v>
+        <v>100.1112397876356</v>
       </c>
       <c r="O19" t="n">
-        <v>95.26695019612205</v>
+        <v>92.46893341758199</v>
       </c>
       <c r="P19" t="n">
-        <v>81.51733376699298</v>
+        <v>79.12314704061679</v>
       </c>
       <c r="Q19" t="n">
-        <v>56.43837652794443</v>
+        <v>54.78076573895984</v>
       </c>
       <c r="R19" t="n">
-        <v>30.30552712053122</v>
+        <v>29.41544537454079</v>
       </c>
       <c r="S19" t="n">
-        <v>11.74599585322651</v>
+        <v>11.4010126936908</v>
       </c>
       <c r="T19" t="n">
-        <v>2.879821622856788</v>
+        <v>2.795240462198579</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03676368029178884</v>
+        <v>0.03568392079402447</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.50256917775485</v>
+        <v>1.458438303809372</v>
       </c>
       <c r="H20" t="n">
-        <v>15.38818659168187</v>
+        <v>14.93623127888774</v>
       </c>
       <c r="I20" t="n">
-        <v>57.92779822539392</v>
+        <v>56.22644270761089</v>
       </c>
       <c r="J20" t="n">
-        <v>127.5286807504708</v>
+        <v>123.7831279879408</v>
       </c>
       <c r="K20" t="n">
-        <v>191.1324340448337</v>
+        <v>185.5188213881916</v>
       </c>
       <c r="L20" t="n">
-        <v>237.1166855185488</v>
+        <v>230.1525026283977</v>
       </c>
       <c r="M20" t="n">
-        <v>263.8380001334465</v>
+        <v>256.0890048137676</v>
       </c>
       <c r="N20" t="n">
-        <v>268.1071748097426</v>
+        <v>260.2327926444661</v>
       </c>
       <c r="O20" t="n">
-        <v>253.1660025484427</v>
+        <v>245.7304467609616</v>
       </c>
       <c r="P20" t="n">
-        <v>216.0713259726198</v>
+        <v>209.7252511356677</v>
       </c>
       <c r="Q20" t="n">
-        <v>162.2605672942742</v>
+        <v>157.4949293804945</v>
       </c>
       <c r="R20" t="n">
-        <v>94.3857611121432</v>
+        <v>91.61362510166558</v>
       </c>
       <c r="S20" t="n">
-        <v>34.23979513808869</v>
+        <v>33.23416284805611</v>
       </c>
       <c r="T20" t="n">
-        <v>6.57749657562186</v>
+        <v>6.384313674925531</v>
       </c>
       <c r="U20" t="n">
-        <v>0.120205534220388</v>
+        <v>0.1166750643047498</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8039453860034567</v>
+        <v>0.7803332867976286</v>
       </c>
       <c r="H21" t="n">
-        <v>7.76441991219128</v>
+        <v>7.536376743545519</v>
       </c>
       <c r="I21" t="n">
-        <v>27.67969859704884</v>
+        <v>26.86673816386572</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>73.72438303029702</v>
       </c>
       <c r="K21" t="n">
-        <v>129.8195494582862</v>
+        <v>126.0067132457381</v>
       </c>
       <c r="L21" t="n">
-        <v>174.5584049741277</v>
+        <v>169.431576153143</v>
       </c>
       <c r="M21" t="n">
-        <v>203.701425216753</v>
+        <v>197.718657799557</v>
       </c>
       <c r="N21" t="n">
-        <v>209.0927958097324</v>
+        <v>202.9516823412832</v>
       </c>
       <c r="O21" t="n">
-        <v>191.2790585724979</v>
+        <v>185.6611395127673</v>
       </c>
       <c r="P21" t="n">
-        <v>153.5183079641162</v>
+        <v>83.39605864855361</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.6229233080904</v>
+        <v>99.60885955683413</v>
       </c>
       <c r="R21" t="n">
-        <v>49.91513545730236</v>
+        <v>48.44911406976857</v>
       </c>
       <c r="S21" t="n">
-        <v>14.93293293738876</v>
+        <v>14.49434855082436</v>
       </c>
       <c r="T21" t="n">
-        <v>3.240464077794633</v>
+        <v>3.145290748100967</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05289114381601691</v>
+        <v>0.05133771623668611</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6740008053494609</v>
+        <v>0.6542052145571144</v>
       </c>
       <c r="H22" t="n">
-        <v>5.992479887561576</v>
+        <v>5.816479089425985</v>
       </c>
       <c r="I22" t="n">
-        <v>20.26904240087289</v>
+        <v>19.67373499777214</v>
       </c>
       <c r="J22" t="n">
-        <v>47.65185693820689</v>
+        <v>46.25230866918799</v>
       </c>
       <c r="K22" t="n">
-        <v>78.30663902151008</v>
+        <v>76.00675129127201</v>
       </c>
       <c r="L22" t="n">
-        <v>100.205537915319</v>
+        <v>97.26247344424593</v>
       </c>
       <c r="M22" t="n">
-        <v>105.6526898785523</v>
+        <v>102.5496410418938</v>
       </c>
       <c r="N22" t="n">
-        <v>103.1405050586135</v>
+        <v>100.1112397876356</v>
       </c>
       <c r="O22" t="n">
-        <v>95.26695019612202</v>
+        <v>92.46893341758199</v>
       </c>
       <c r="P22" t="n">
-        <v>81.51733376699296</v>
+        <v>79.12314704061679</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.43837652794441</v>
+        <v>54.78076573895984</v>
       </c>
       <c r="R22" t="n">
-        <v>30.30552712053121</v>
+        <v>29.41544537454079</v>
       </c>
       <c r="S22" t="n">
-        <v>11.74599585322651</v>
+        <v>11.4010126936908</v>
       </c>
       <c r="T22" t="n">
-        <v>2.879821622856787</v>
+        <v>2.795240462198579</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03676368029178882</v>
+        <v>0.03568392079402447</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
-        <v>11.76595806653216</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M27" t="n">
         <v>205.8702969983122</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33265,7 +33265,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
-        <v>115.4815392304386</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
         <v>176.4169820478007</v>
@@ -33505,10 +33505,10 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L33" t="n">
-        <v>56.9811619494227</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576415</v>
       </c>
       <c r="N33" t="n">
         <v>211.31907117367</v>
@@ -33748,7 +33748,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N36" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
         <v>193.3156655923047</v>
@@ -33757,7 +33757,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>50.44659727034982</v>
@@ -33973,7 +33973,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33994,7 +33994,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>50.44659727034982</v>
@@ -34231,7 +34231,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>50.44659727034982</v>
@@ -34465,10 +34465,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>50.44659727034981</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>115.8239578194293</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L11" t="n">
-        <v>196.4945358150182</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M11" t="n">
-        <v>235.4123198945115</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N11" t="n">
-        <v>224.4417418455866</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O11" t="n">
-        <v>166.289893789476</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
-        <v>103.869644866821</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>5.212927593424832</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.930118828988702</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>243.0338665604673</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>232.9898745452751</v>
+        <v>22.64750254990096</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
@@ -35573,19 +35573,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>33.75987543178757</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M13" t="n">
-        <v>46.08911889082933</v>
+        <v>49.48341136478941</v>
       </c>
       <c r="N13" t="n">
-        <v>50.48273419507662</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O13" t="n">
-        <v>30.45089961919058</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>2.297740302025437</v>
+        <v>4.916638815831903</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>115.8239578194293</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L14" t="n">
-        <v>196.4945358150182</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M14" t="n">
-        <v>235.4123198945115</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N14" t="n">
-        <v>224.4417418455866</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O14" t="n">
-        <v>166.289893789476</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P14" t="n">
-        <v>103.869644866821</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.930118828988702</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K15" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M15" t="n">
-        <v>263.2420339516669</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N15" t="n">
-        <v>115.1376546764739</v>
+        <v>166.4869945425076</v>
       </c>
       <c r="O15" t="n">
-        <v>263.0434990833254</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P15" t="n">
-        <v>193.94078250313</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>76.41420694903819</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,19 +35810,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>33.75987543178757</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M16" t="n">
-        <v>46.08911889082933</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N16" t="n">
-        <v>50.48273419507662</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O16" t="n">
-        <v>30.45089961919058</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P16" t="n">
-        <v>2.297740302025437</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>115.5793913958584</v>
+        <v>111.8338386333283</v>
       </c>
       <c r="K17" t="n">
-        <v>295.187995571018</v>
+        <v>289.5743829143758</v>
       </c>
       <c r="L17" t="n">
-        <v>419.011485099012</v>
+        <v>412.047302208861</v>
       </c>
       <c r="M17" t="n">
-        <v>483.0053003990064</v>
+        <v>475.2563050793274</v>
       </c>
       <c r="N17" t="n">
-        <v>476.0410356251359</v>
+        <v>468.1666534598593</v>
       </c>
       <c r="O17" t="n">
-        <v>403.8679723895015</v>
+        <v>396.4324166020202</v>
       </c>
       <c r="P17" t="n">
-        <v>306.637038388833</v>
+        <v>300.2909635518808</v>
       </c>
       <c r="Q17" t="n">
-        <v>152.2698680797295</v>
+        <v>147.5042301659497</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>72.97779170403916</v>
       </c>
       <c r="K18" t="n">
-        <v>256.4433474965059</v>
+        <v>252.6305112839577</v>
       </c>
       <c r="L18" t="n">
-        <v>406.8443704977128</v>
+        <v>401.717541676728</v>
       </c>
       <c r="M18" t="n">
-        <v>527.2724550447347</v>
+        <v>521.2896876275386</v>
       </c>
       <c r="N18" t="n">
-        <v>557.0934580699527</v>
+        <v>550.9523446015035</v>
       </c>
       <c r="O18" t="n">
-        <v>442.545133404783</v>
+        <v>436.9272143450524</v>
       </c>
       <c r="P18" t="n">
-        <v>338.0066691897232</v>
+        <v>333.4977938597962</v>
       </c>
       <c r="Q18" t="n">
-        <v>123.3946532446822</v>
+        <v>31.11320751698699</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.03714719562726</v>
+        <v>53.73725946538916</v>
       </c>
       <c r="L19" t="n">
-        <v>127.7955631756351</v>
+        <v>124.8524987045621</v>
       </c>
       <c r="M19" t="n">
-        <v>145.2365668403929</v>
+        <v>142.1335180037344</v>
       </c>
       <c r="N19" t="n">
-        <v>147.2726774378421</v>
+        <v>144.2434121668642</v>
       </c>
       <c r="O19" t="n">
-        <v>119.8520781101617</v>
+        <v>117.0540613316217</v>
       </c>
       <c r="P19" t="n">
-        <v>78.79589303188646</v>
+        <v>76.40170630551027</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>115.5793913958583</v>
+        <v>111.8338386333283</v>
       </c>
       <c r="K20" t="n">
-        <v>295.1879955710179</v>
+        <v>289.5743829143758</v>
       </c>
       <c r="L20" t="n">
-        <v>419.011485099012</v>
+        <v>412.047302208861</v>
       </c>
       <c r="M20" t="n">
-        <v>483.0053003990063</v>
+        <v>475.2563050793274</v>
       </c>
       <c r="N20" t="n">
-        <v>476.0410356251358</v>
+        <v>468.1666534598593</v>
       </c>
       <c r="O20" t="n">
-        <v>403.8679723895013</v>
+        <v>396.4324166020202</v>
       </c>
       <c r="P20" t="n">
-        <v>306.6370383888329</v>
+        <v>300.2909635518808</v>
       </c>
       <c r="Q20" t="n">
-        <v>152.2698680797294</v>
+        <v>147.5042301659497</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>256.4433474965059</v>
+        <v>252.6305112839577</v>
       </c>
       <c r="L21" t="n">
-        <v>406.8443704977127</v>
+        <v>401.717541676728</v>
       </c>
       <c r="M21" t="n">
-        <v>527.2724550447346</v>
+        <v>521.2896876275386</v>
       </c>
       <c r="N21" t="n">
-        <v>557.0934580699526</v>
+        <v>550.9523446015035</v>
       </c>
       <c r="O21" t="n">
-        <v>442.545133404783</v>
+        <v>436.9272143450524</v>
       </c>
       <c r="P21" t="n">
-        <v>338.0066691897231</v>
+        <v>267.8844198741605</v>
       </c>
       <c r="Q21" t="n">
-        <v>123.3946532446827</v>
+        <v>169.7043732066617</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.03714719562723</v>
+        <v>53.73725946538916</v>
       </c>
       <c r="L22" t="n">
-        <v>127.7955631756351</v>
+        <v>124.8524987045621</v>
       </c>
       <c r="M22" t="n">
-        <v>145.2365668403929</v>
+        <v>142.1335180037344</v>
       </c>
       <c r="N22" t="n">
-        <v>147.2726774378421</v>
+        <v>144.2434121668642</v>
       </c>
       <c r="O22" t="n">
-        <v>119.8520781101617</v>
+        <v>117.0540613316217</v>
       </c>
       <c r="P22" t="n">
-        <v>78.79589303188645</v>
+        <v>76.40170630551027</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>138.3897561047518</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36451,13 +36451,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36688,13 +36688,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>242.1053372686582</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3897561047518</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38113,10 +38113,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
